--- a/state_results/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
+++ b/state_results/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +728,7 @@
         <v>0.008</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0077008485121949</v>
+        <v>0.0077000101278495</v>
       </c>
       <c r="H4" t="n">
         <v>0.013</v>
@@ -809,7 +809,7 @@
         <v>0.008</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0077008485121949</v>
+        <v>0.0077000101278495</v>
       </c>
       <c r="H5" t="n">
         <v>0.013</v>
@@ -964,27 +964,27 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.00199</v>
+        <v>0.00178</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0033559793162282</v>
+        <v>0.0031214536393863</v>
       </c>
       <c r="H7" t="n">
         <v>0.0459107659273188</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00813</v>
+        <v>0.0076</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.00215</v>
+        <v>0.00189</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0042</v>
+        <v>0.00385</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00673</v>
+        <v>0.00571</v>
       </c>
       <c r="O7" t="n">
         <v>1799585</v>
@@ -1045,27 +1045,27 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.00199</v>
+        <v>0.00178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0033559793162282</v>
+        <v>0.0031214536393863</v>
       </c>
       <c r="H8" t="n">
         <v>0.0459107659273188</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00813</v>
+        <v>0.0076</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.00215</v>
+        <v>0.00189</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0042</v>
+        <v>0.00385</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00673</v>
+        <v>0.00571</v>
       </c>
       <c r="O8" t="n">
         <v>1799585</v>
@@ -1129,7 +1129,7 @@
         <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0336075126421855</v>
+        <v>0.033597105570175</v>
       </c>
       <c r="H9" t="n">
         <v>0.138</v>
@@ -1210,7 +1210,7 @@
         <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0336075126421855</v>
+        <v>0.033597105570175</v>
       </c>
       <c r="H10" t="n">
         <v>0.138</v>
@@ -1364,7 +1364,7 @@
         <v>0.037</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0409872090972359</v>
+        <v>0.0409682108040841</v>
       </c>
       <c r="H12" t="n">
         <v>0.147</v>
@@ -1441,7 +1441,7 @@
         <v>0.037</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0409872090972359</v>
+        <v>0.0409682108040841</v>
       </c>
       <c r="H13" t="n">
         <v>0.147</v>
@@ -1518,7 +1518,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0763290958381564</v>
+        <v>0.0760574408979089</v>
       </c>
       <c r="H14" t="n">
         <v>0.25</v>
@@ -1595,7 +1595,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0763290958381564</v>
+        <v>0.0760574408979089</v>
       </c>
       <c r="H15" t="n">
         <v>0.25</v>
@@ -1988,7 +1988,7 @@
         <v>0.007</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0074770334092598</v>
+        <v>0.0074762802843394</v>
       </c>
       <c r="H20" t="n">
         <v>0.013</v>
@@ -2069,7 +2069,7 @@
         <v>0.007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0074770334092598</v>
+        <v>0.0074762802843394</v>
       </c>
       <c r="H21" t="n">
         <v>0.013</v>
@@ -2224,27 +2224,27 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.00247</v>
+        <v>0.00219</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0035935539378888</v>
+        <v>0.0033954861868203</v>
       </c>
       <c r="H23" t="n">
         <v>0.0459107659273188</v>
       </c>
       <c r="I23" t="n">
-        <v>0.008279999999999999</v>
+        <v>0.007939999999999999</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00278</v>
+        <v>0.00268</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00437</v>
+        <v>0.0041</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00727</v>
+        <v>0.00691</v>
       </c>
       <c r="O23" t="n">
         <v>1799585</v>
@@ -2305,27 +2305,27 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.00247</v>
+        <v>0.00219</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0035935539378888</v>
+        <v>0.0033954861868203</v>
       </c>
       <c r="H24" t="n">
         <v>0.0459107659273188</v>
       </c>
       <c r="I24" t="n">
-        <v>0.008279999999999999</v>
+        <v>0.007939999999999999</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.00278</v>
+        <v>0.00268</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00437</v>
+        <v>0.0041</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00727</v>
+        <v>0.00691</v>
       </c>
       <c r="O24" t="n">
         <v>1799585</v>
@@ -2389,7 +2389,7 @@
         <v>0.029</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0341104829647108</v>
+        <v>0.0341039143840641</v>
       </c>
       <c r="H25" t="n">
         <v>0.138</v>
@@ -2470,7 +2470,7 @@
         <v>0.029</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0341104829647108</v>
+        <v>0.0341039143840641</v>
       </c>
       <c r="H26" t="n">
         <v>0.138</v>
@@ -2624,7 +2624,7 @@
         <v>0.037</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0409491525423729</v>
+        <v>0.0409322033898305</v>
       </c>
       <c r="H28" t="n">
         <v>0.147</v>
@@ -2701,7 +2701,7 @@
         <v>0.037</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0409491525423729</v>
+        <v>0.0409322033898305</v>
       </c>
       <c r="H29" t="n">
         <v>0.147</v>
@@ -2778,7 +2778,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.074727126503813</v>
+        <v>0.0745272960646719</v>
       </c>
       <c r="H30" t="n">
         <v>0.25</v>
@@ -2855,7 +2855,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.074727126503813</v>
+        <v>0.0745272960646719</v>
       </c>
       <c r="H31" t="n">
         <v>0.25</v>
@@ -3248,7 +3248,7 @@
         <v>0.007</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0077525887704702</v>
+        <v>0.0077517952995718</v>
       </c>
       <c r="H36" t="n">
         <v>0.014</v>
@@ -3329,7 +3329,7 @@
         <v>0.007</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0077525887704702</v>
+        <v>0.0077517952995718</v>
       </c>
       <c r="H37" t="n">
         <v>0.014</v>
@@ -3410,7 +3410,7 @@
         <v>25</v>
       </c>
       <c r="G38" t="n">
-        <v>44.0414403377315</v>
+        <v>43.9977528977538</v>
       </c>
       <c r="H38" t="n">
         <v>480</v>
@@ -3495,7 +3495,7 @@
         <v>25</v>
       </c>
       <c r="G39" t="n">
-        <v>44.0414403377315</v>
+        <v>43.9977528977538</v>
       </c>
       <c r="H39" t="n">
         <v>480</v>
@@ -3580,7 +3580,7 @@
         <v>25</v>
       </c>
       <c r="G40" t="n">
-        <v>44.0414403377315</v>
+        <v>43.9977528977538</v>
       </c>
       <c r="H40" t="n">
         <v>480</v>
@@ -3665,7 +3665,7 @@
         <v>25</v>
       </c>
       <c r="G41" t="n">
-        <v>44.0414403377315</v>
+        <v>43.9977528977538</v>
       </c>
       <c r="H41" t="n">
         <v>480</v>
@@ -3824,27 +3824,27 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.00266</v>
+        <v>0.00243</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0037382523851863</v>
+        <v>0.0035574911520014</v>
       </c>
       <c r="H43" t="n">
         <v>0.0459107659273188</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0083</v>
+        <v>0.00796</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.0031</v>
+        <v>0.0029</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0044</v>
+        <v>0.00416</v>
       </c>
       <c r="N43" t="n">
-        <v>0.00735</v>
+        <v>0.00698</v>
       </c>
       <c r="O43" t="n">
         <v>1799585</v>
@@ -3905,27 +3905,27 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.00266</v>
+        <v>0.00243</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0037382523851863</v>
+        <v>0.0035574911520014</v>
       </c>
       <c r="H44" t="n">
         <v>0.0459107659273188</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0083</v>
+        <v>0.00796</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.0031</v>
+        <v>0.0029</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0044</v>
+        <v>0.00416</v>
       </c>
       <c r="N44" t="n">
-        <v>0.00735</v>
+        <v>0.00698</v>
       </c>
       <c r="O44" t="n">
         <v>1799585</v>
@@ -3989,7 +3989,7 @@
         <v>0.0305</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0354199731235346</v>
+        <v>0.035413052654639</v>
       </c>
       <c r="H45" t="n">
         <v>0.138</v>
@@ -4070,7 +4070,7 @@
         <v>0.0305</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0354199731235346</v>
+        <v>0.035413052654639</v>
       </c>
       <c r="H46" t="n">
         <v>0.138</v>
@@ -4221,10 +4221,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.039</v>
+        <v>0.03875</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0418392857142857</v>
+        <v>0.0418035714285714</v>
       </c>
       <c r="H48" t="n">
         <v>0.147</v>
@@ -4298,10 +4298,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.039</v>
+        <v>0.03875</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0418392857142857</v>
+        <v>0.0418035714285714</v>
       </c>
       <c r="H49" t="n">
         <v>0.147</v>
@@ -4378,7 +4378,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0732425281692925</v>
+        <v>0.0730820650266082</v>
       </c>
       <c r="H50" t="n">
         <v>0.25</v>
@@ -4455,7 +4455,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0732425281692925</v>
+        <v>0.0730820650266082</v>
       </c>
       <c r="H51" t="n">
         <v>0.25</v>
@@ -4660,6 +4660,1606 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6364</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.66475</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.7901724137931</v>
+      </c>
+      <c r="H55" t="n">
+        <v>75</v>
+      </c>
+      <c r="I55" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0078214285714285</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0078214285714285</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>21</v>
+      </c>
+      <c r="G58" t="n">
+        <v>39.4586844901564</v>
+      </c>
+      <c r="H58" t="n">
+        <v>480</v>
+      </c>
+      <c r="I58" t="n">
+        <v>110</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="L58" t="n">
+        <v>39</v>
+      </c>
+      <c r="M58" t="n">
+        <v>67.92</v>
+      </c>
+      <c r="N58" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>21</v>
+      </c>
+      <c r="G59" t="n">
+        <v>39.4586844901564</v>
+      </c>
+      <c r="H59" t="n">
+        <v>480</v>
+      </c>
+      <c r="I59" t="n">
+        <v>110</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="L59" t="n">
+        <v>39</v>
+      </c>
+      <c r="M59" t="n">
+        <v>67.92</v>
+      </c>
+      <c r="N59" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>21</v>
+      </c>
+      <c r="G60" t="n">
+        <v>39.4586844901564</v>
+      </c>
+      <c r="H60" t="n">
+        <v>480</v>
+      </c>
+      <c r="I60" t="n">
+        <v>110</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="L60" t="n">
+        <v>39</v>
+      </c>
+      <c r="M60" t="n">
+        <v>67.92</v>
+      </c>
+      <c r="N60" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>21</v>
+      </c>
+      <c r="G61" t="n">
+        <v>39.4586844901564</v>
+      </c>
+      <c r="H61" t="n">
+        <v>480</v>
+      </c>
+      <c r="I61" t="n">
+        <v>110</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="L61" t="n">
+        <v>39</v>
+      </c>
+      <c r="M61" t="n">
+        <v>67.92</v>
+      </c>
+      <c r="N61" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="G62" t="n">
+        <v>133.02</v>
+      </c>
+      <c r="H62" t="n">
+        <v>154</v>
+      </c>
+      <c r="I62" t="n">
+        <v>154</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M62" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>154</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.00228</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0034052414181901</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0459107659273188</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.00779</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>0.00301</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.00424</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.00228</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0034052414181901</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0459107659273188</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.00779</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>0.00301</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.00424</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0353773383689247</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.05412</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0353773383689247</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.05412</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7.4372</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7.943</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7.943</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="M67" t="n">
+        <v>7.89295</v>
+      </c>
+      <c r="N67" t="n">
+        <v>7.943</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.03875</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0413482142857143</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.05698</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.06202</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.03875</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0413482142857143</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.05698</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.06202</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.07380500444682279</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.1304</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.07380500444682279</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.1304</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0103928571428571</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.01402</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ohau at u/s Makahika Confluence</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0103928571428571</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.01402</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1799585</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5496887</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Ohau_1a</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
+++ b/state_results/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="64">
   <si>
     <t>site name</t>
   </si>
@@ -142,6 +142,9 @@
     <t>E coli (95th Percentile)</t>
   </si>
   <si>
+    <t>Visual Clarity (Sediment class 3)</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>2019 - 2023</t>
   </si>
   <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
@@ -197,6 +203,9 @@
   </si>
   <si>
     <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -554,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U73"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,13 +642,13 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>0.657</v>
@@ -654,7 +663,7 @@
         <v>0.761</v>
       </c>
       <c r="L2">
-        <v>0.6545</v>
+        <v>0.657</v>
       </c>
       <c r="M2">
         <v>0.7316</v>
@@ -669,16 +678,16 @@
         <v>5496887</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -689,13 +698,13 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1.325</v>
@@ -710,7 +719,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L3">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="M3">
         <v>4.898</v>
@@ -725,19 +734,19 @@
         <v>5496887</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -748,19 +757,19 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>0.008</v>
       </c>
       <c r="G4">
-        <v>0.0077000101278495</v>
+        <v>0.0076991414610551</v>
       </c>
       <c r="H4">
         <v>0.013</v>
@@ -784,19 +793,19 @@
         <v>5496887</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -807,19 +816,19 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>0.008</v>
       </c>
       <c r="G5">
-        <v>0.0077000101278495</v>
+        <v>0.0076991414610551</v>
       </c>
       <c r="H5">
         <v>0.013</v>
@@ -843,19 +852,19 @@
         <v>5496887</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -866,13 +875,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>140</v>
@@ -887,7 +896,7 @@
         <v>154</v>
       </c>
       <c r="L6">
-        <v>142.5</v>
+        <v>140</v>
       </c>
       <c r="M6">
         <v>150.85</v>
@@ -902,16 +911,16 @@
         <v>5496887</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -922,34 +931,34 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>0.00178</v>
+        <v>0.00186</v>
       </c>
       <c r="G7">
-        <v>0.0031214536393863</v>
+        <v>0.0031916993928012</v>
       </c>
       <c r="H7">
         <v>0.0459107659273188</v>
       </c>
       <c r="I7">
-        <v>0.0076</v>
+        <v>0.00781</v>
       </c>
       <c r="L7">
-        <v>0.00189</v>
+        <v>0.00197</v>
       </c>
       <c r="M7">
-        <v>0.00385</v>
+        <v>0.00407</v>
       </c>
       <c r="N7">
-        <v>0.00571</v>
+        <v>0.00604</v>
       </c>
       <c r="O7">
         <v>1799585</v>
@@ -958,19 +967,19 @@
         <v>5496887</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -981,34 +990,34 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8">
-        <v>0.00178</v>
+        <v>0.00186</v>
       </c>
       <c r="G8">
-        <v>0.0031214536393863</v>
+        <v>0.0031916993928012</v>
       </c>
       <c r="H8">
         <v>0.0459107659273188</v>
       </c>
       <c r="I8">
-        <v>0.0076</v>
+        <v>0.00781</v>
       </c>
       <c r="L8">
-        <v>0.00189</v>
+        <v>0.00197</v>
       </c>
       <c r="M8">
-        <v>0.00385</v>
+        <v>0.00407</v>
       </c>
       <c r="N8">
-        <v>0.00571</v>
+        <v>0.00604</v>
       </c>
       <c r="O8">
         <v>1799585</v>
@@ -1017,19 +1026,19 @@
         <v>5496887</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1040,19 +1049,19 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>0.03</v>
       </c>
       <c r="G9">
-        <v>0.033597105570175</v>
+        <v>0.0335704714384648</v>
       </c>
       <c r="H9">
         <v>0.138</v>
@@ -1061,7 +1070,7 @@
         <v>0.06285</v>
       </c>
       <c r="L9">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="M9">
         <v>0.05149</v>
@@ -1076,19 +1085,19 @@
         <v>5496887</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1099,19 +1108,19 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>0.03</v>
       </c>
       <c r="G10">
-        <v>0.033597105570175</v>
+        <v>0.0335704714384648</v>
       </c>
       <c r="H10">
         <v>0.138</v>
@@ -1120,7 +1129,7 @@
         <v>0.06285</v>
       </c>
       <c r="L10">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="M10">
         <v>0.05149</v>
@@ -1135,19 +1144,19 @@
         <v>5496887</v>
       </c>
       <c r="Q10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1158,13 +1167,13 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>7.8</v>
@@ -1179,7 +1188,7 @@
         <v>7.943</v>
       </c>
       <c r="L11">
-        <v>7.72</v>
+        <v>7.8</v>
       </c>
       <c r="M11">
         <v>7.93495</v>
@@ -1194,16 +1203,16 @@
         <v>5496887</v>
       </c>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1214,16 +1223,16 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>0.037</v>
       </c>
       <c r="G12">
-        <v>0.0409682108040841</v>
+        <v>0.0409654838105112</v>
       </c>
       <c r="H12">
         <v>0.147</v>
@@ -1232,7 +1241,7 @@
         <v>0.06725</v>
       </c>
       <c r="L12">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="M12">
         <v>0.05698</v>
@@ -1247,19 +1256,19 @@
         <v>5496887</v>
       </c>
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1270,16 +1279,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>0.037</v>
       </c>
       <c r="G13">
-        <v>0.0409682108040841</v>
+        <v>0.0409654838105112</v>
       </c>
       <c r="H13">
         <v>0.147</v>
@@ -1288,7 +1297,7 @@
         <v>0.06725</v>
       </c>
       <c r="L13">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="M13">
         <v>0.05698</v>
@@ -1303,19 +1312,19 @@
         <v>5496887</v>
       </c>
       <c r="Q13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1326,16 +1335,16 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>0.07000000000000001</v>
       </c>
       <c r="G14">
-        <v>0.0760574408979089</v>
+        <v>0.07555133957332601</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1359,19 +1368,19 @@
         <v>5496887</v>
       </c>
       <c r="Q14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1382,16 +1391,16 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>0.07000000000000001</v>
       </c>
       <c r="G15">
-        <v>0.0760574408979089</v>
+        <v>0.07555133957332601</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1415,19 +1424,19 @@
         <v>5496887</v>
       </c>
       <c r="Q15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1438,10 +1447,10 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>0.008999999999999999</v>
@@ -1471,19 +1480,19 @@
         <v>5496887</v>
       </c>
       <c r="Q16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1494,10 +1503,10 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>0.008999999999999999</v>
@@ -1527,19 +1536,19 @@
         <v>5496887</v>
       </c>
       <c r="Q17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1550,13 +1559,13 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>0.652</v>
@@ -1586,16 +1595,16 @@
         <v>5496887</v>
       </c>
       <c r="Q18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1606,13 +1615,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>1.15</v>
@@ -1642,19 +1651,19 @@
         <v>5496887</v>
       </c>
       <c r="Q19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1665,19 +1674,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>0.007</v>
       </c>
       <c r="G20">
-        <v>0.0074762802843394</v>
+        <v>0.007475499956541</v>
       </c>
       <c r="H20">
         <v>0.013</v>
@@ -1686,7 +1695,7 @@
         <v>0.01055</v>
       </c>
       <c r="L20">
-        <v>0.0065</v>
+        <v>0.007</v>
       </c>
       <c r="M20">
         <v>0.008999999999999999</v>
@@ -1701,19 +1710,19 @@
         <v>5496887</v>
       </c>
       <c r="Q20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1724,19 +1733,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>0.007</v>
       </c>
       <c r="G21">
-        <v>0.0074762802843394</v>
+        <v>0.007475499956541</v>
       </c>
       <c r="H21">
         <v>0.013</v>
@@ -1745,7 +1754,7 @@
         <v>0.01055</v>
       </c>
       <c r="L21">
-        <v>0.0065</v>
+        <v>0.007</v>
       </c>
       <c r="M21">
         <v>0.008999999999999999</v>
@@ -1760,19 +1769,19 @@
         <v>5496887</v>
       </c>
       <c r="Q21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1783,13 +1792,13 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>140</v>
@@ -1819,16 +1828,16 @@
         <v>5496887</v>
       </c>
       <c r="Q22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1839,34 +1848,34 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23">
-        <v>0.00219</v>
+        <v>0.0023</v>
       </c>
       <c r="G23">
-        <v>0.0033954861868203</v>
+        <v>0.0034562820547999</v>
       </c>
       <c r="H23">
         <v>0.0459107659273188</v>
       </c>
       <c r="I23">
-        <v>0.007939999999999999</v>
+        <v>0.00797</v>
       </c>
       <c r="L23">
-        <v>0.00268</v>
+        <v>0.00272</v>
       </c>
       <c r="M23">
-        <v>0.0041</v>
+        <v>0.00419</v>
       </c>
       <c r="N23">
-        <v>0.00691</v>
+        <v>0.00701</v>
       </c>
       <c r="O23">
         <v>1799585</v>
@@ -1875,19 +1884,19 @@
         <v>5496887</v>
       </c>
       <c r="Q23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1898,34 +1907,34 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>0.00219</v>
+        <v>0.0023</v>
       </c>
       <c r="G24">
-        <v>0.0033954861868203</v>
+        <v>0.0034562820547999</v>
       </c>
       <c r="H24">
         <v>0.0459107659273188</v>
       </c>
       <c r="I24">
-        <v>0.007939999999999999</v>
+        <v>0.00797</v>
       </c>
       <c r="L24">
-        <v>0.00268</v>
+        <v>0.00272</v>
       </c>
       <c r="M24">
-        <v>0.0041</v>
+        <v>0.00419</v>
       </c>
       <c r="N24">
-        <v>0.00691</v>
+        <v>0.00701</v>
       </c>
       <c r="O24">
         <v>1799585</v>
@@ -1934,19 +1943,19 @@
         <v>5496887</v>
       </c>
       <c r="Q24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1957,19 +1966,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>0.029</v>
       </c>
       <c r="G25">
-        <v>0.0341039143840641</v>
+        <v>0.0340894612164865</v>
       </c>
       <c r="H25">
         <v>0.138</v>
@@ -1978,7 +1987,7 @@
         <v>0.06254999999999999</v>
       </c>
       <c r="L25">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="M25">
         <v>0.05247</v>
@@ -1993,19 +2002,19 @@
         <v>5496887</v>
       </c>
       <c r="Q25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2016,19 +2025,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>0.029</v>
       </c>
       <c r="G26">
-        <v>0.0341039143840641</v>
+        <v>0.0340894612164865</v>
       </c>
       <c r="H26">
         <v>0.138</v>
@@ -2037,7 +2046,7 @@
         <v>0.06254999999999999</v>
       </c>
       <c r="L26">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="M26">
         <v>0.05247</v>
@@ -2052,19 +2061,19 @@
         <v>5496887</v>
       </c>
       <c r="Q26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2075,13 +2084,13 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>7.64</v>
@@ -2111,16 +2120,16 @@
         <v>5496887</v>
       </c>
       <c r="Q27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2131,10 +2140,10 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>0.037</v>
@@ -2149,7 +2158,7 @@
         <v>0.06575</v>
       </c>
       <c r="L28">
-        <v>0.026</v>
+        <v>0.0305</v>
       </c>
       <c r="M28">
         <v>0.05747</v>
@@ -2164,19 +2173,19 @@
         <v>5496887</v>
       </c>
       <c r="Q28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2187,10 +2196,10 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <v>0.037</v>
@@ -2205,7 +2214,7 @@
         <v>0.06575</v>
       </c>
       <c r="L29">
-        <v>0.026</v>
+        <v>0.0305</v>
       </c>
       <c r="M29">
         <v>0.05747</v>
@@ -2220,19 +2229,19 @@
         <v>5496887</v>
       </c>
       <c r="Q29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2243,16 +2252,16 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>0.07000000000000001</v>
       </c>
       <c r="G30">
-        <v>0.0745272960646719</v>
+        <v>0.0741630152605523</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -2276,19 +2285,19 @@
         <v>5496887</v>
       </c>
       <c r="Q30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2299,16 +2308,16 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <v>0.07000000000000001</v>
       </c>
       <c r="G31">
-        <v>0.0745272960646719</v>
+        <v>0.0741630152605523</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -2332,19 +2341,19 @@
         <v>5496887</v>
       </c>
       <c r="Q31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2355,10 +2364,10 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F32">
         <v>0.008999999999999999</v>
@@ -2373,7 +2382,7 @@
         <v>0.0204</v>
       </c>
       <c r="L32">
-        <v>0.008500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M32">
         <v>0.01247</v>
@@ -2388,19 +2397,19 @@
         <v>5496887</v>
       </c>
       <c r="Q32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2411,10 +2420,10 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F33">
         <v>0.008999999999999999</v>
@@ -2429,7 +2438,7 @@
         <v>0.0204</v>
       </c>
       <c r="L33">
-        <v>0.008500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M33">
         <v>0.01247</v>
@@ -2444,19 +2453,19 @@
         <v>5496887</v>
       </c>
       <c r="Q33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2467,13 +2476,13 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <v>0.642</v>
@@ -2503,16 +2512,16 @@
         <v>5496887</v>
       </c>
       <c r="Q34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2523,13 +2532,13 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F35">
         <v>1.15</v>
@@ -2544,7 +2553,7 @@
         <v>8.275</v>
       </c>
       <c r="L35">
-        <v>1.075</v>
+        <v>1.05</v>
       </c>
       <c r="M35">
         <v>4.282</v>
@@ -2559,19 +2568,19 @@
         <v>5496887</v>
       </c>
       <c r="Q35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2582,19 +2591,19 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <v>0.007</v>
       </c>
       <c r="G36">
-        <v>0.0077517952995718</v>
+        <v>0.0077509731684986</v>
       </c>
       <c r="H36">
         <v>0.014</v>
@@ -2603,7 +2612,7 @@
         <v>0.012</v>
       </c>
       <c r="L36">
-        <v>0.0065</v>
+        <v>0.007</v>
       </c>
       <c r="M36">
         <v>0.009979999999999999</v>
@@ -2618,19 +2627,19 @@
         <v>5496887</v>
       </c>
       <c r="Q36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2641,19 +2650,19 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <v>0.007</v>
       </c>
       <c r="G37">
-        <v>0.0077517952995718</v>
+        <v>0.0077509731684986</v>
       </c>
       <c r="H37">
         <v>0.014</v>
@@ -2662,7 +2671,7 @@
         <v>0.012</v>
       </c>
       <c r="L37">
-        <v>0.0065</v>
+        <v>0.007</v>
       </c>
       <c r="M37">
         <v>0.009979999999999999</v>
@@ -2677,19 +2686,19 @@
         <v>5496887</v>
       </c>
       <c r="Q37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2700,19 +2709,19 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38">
         <v>25</v>
       </c>
       <c r="G38">
-        <v>43.9977528977538</v>
+        <v>43.9850532901251</v>
       </c>
       <c r="H38">
         <v>480</v>
@@ -2727,7 +2736,7 @@
         <v>2.17391304347826</v>
       </c>
       <c r="L38">
-        <v>51.5</v>
+        <v>39.1</v>
       </c>
       <c r="M38">
         <v>72.40000000000001</v>
@@ -2742,19 +2751,19 @@
         <v>5496887</v>
       </c>
       <c r="Q38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2765,19 +2774,19 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <v>25</v>
       </c>
       <c r="G39">
-        <v>43.9977528977538</v>
+        <v>43.9850532901251</v>
       </c>
       <c r="H39">
         <v>480</v>
@@ -2792,7 +2801,7 @@
         <v>2.17391304347826</v>
       </c>
       <c r="L39">
-        <v>51.5</v>
+        <v>39.1</v>
       </c>
       <c r="M39">
         <v>72.40000000000001</v>
@@ -2807,19 +2816,19 @@
         <v>5496887</v>
       </c>
       <c r="Q39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2830,19 +2839,19 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>25</v>
       </c>
       <c r="G40">
-        <v>43.9977528977538</v>
+        <v>43.9850532901251</v>
       </c>
       <c r="H40">
         <v>480</v>
@@ -2857,7 +2866,7 @@
         <v>2.17391304347826</v>
       </c>
       <c r="L40">
-        <v>51.5</v>
+        <v>39.1</v>
       </c>
       <c r="M40">
         <v>72.40000000000001</v>
@@ -2872,19 +2881,19 @@
         <v>5496887</v>
       </c>
       <c r="Q40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2895,19 +2904,19 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F41">
         <v>25</v>
       </c>
       <c r="G41">
-        <v>43.9977528977538</v>
+        <v>43.9850532901251</v>
       </c>
       <c r="H41">
         <v>480</v>
@@ -2922,7 +2931,7 @@
         <v>2.17391304347826</v>
       </c>
       <c r="L41">
-        <v>51.5</v>
+        <v>39.1</v>
       </c>
       <c r="M41">
         <v>72.40000000000001</v>
@@ -2937,19 +2946,19 @@
         <v>5496887</v>
       </c>
       <c r="Q41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2960,13 +2969,13 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F42">
         <v>126.15</v>
@@ -2996,16 +3005,16 @@
         <v>5496887</v>
       </c>
       <c r="Q42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3016,34 +3025,34 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F43">
-        <v>0.00243</v>
+        <v>0.00253</v>
       </c>
       <c r="G43">
-        <v>0.0035574911520014</v>
+        <v>0.0036160226546445</v>
       </c>
       <c r="H43">
         <v>0.0459107659273188</v>
       </c>
       <c r="I43">
-        <v>0.00796</v>
+        <v>0.007979999999999999</v>
       </c>
       <c r="L43">
         <v>0.0029</v>
       </c>
       <c r="M43">
-        <v>0.00416</v>
+        <v>0.0042</v>
       </c>
       <c r="N43">
-        <v>0.00698</v>
+        <v>0.0071</v>
       </c>
       <c r="O43">
         <v>1799585</v>
@@ -3052,19 +3061,19 @@
         <v>5496887</v>
       </c>
       <c r="Q43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3075,34 +3084,34 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>0.00243</v>
+        <v>0.00253</v>
       </c>
       <c r="G44">
-        <v>0.0035574911520014</v>
+        <v>0.0036160226546445</v>
       </c>
       <c r="H44">
         <v>0.0459107659273188</v>
       </c>
       <c r="I44">
-        <v>0.00796</v>
+        <v>0.007979999999999999</v>
       </c>
       <c r="L44">
         <v>0.0029</v>
       </c>
       <c r="M44">
-        <v>0.00416</v>
+        <v>0.0042</v>
       </c>
       <c r="N44">
-        <v>0.00698</v>
+        <v>0.0071</v>
       </c>
       <c r="O44">
         <v>1799585</v>
@@ -3111,19 +3120,19 @@
         <v>5496887</v>
       </c>
       <c r="Q44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3134,19 +3143,19 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F45">
         <v>0.0305</v>
       </c>
       <c r="G45">
-        <v>0.035413052654639</v>
+        <v>0.0353978252102268</v>
       </c>
       <c r="H45">
         <v>0.138</v>
@@ -3155,7 +3164,7 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="L45">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="M45">
         <v>0.05298</v>
@@ -3170,19 +3179,19 @@
         <v>5496887</v>
       </c>
       <c r="Q45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3193,19 +3202,19 @@
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46">
         <v>0.0305</v>
       </c>
       <c r="G46">
-        <v>0.035413052654639</v>
+        <v>0.0353978252102268</v>
       </c>
       <c r="H46">
         <v>0.138</v>
@@ -3214,7 +3223,7 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="L46">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="M46">
         <v>0.05298</v>
@@ -3229,19 +3238,19 @@
         <v>5496887</v>
       </c>
       <c r="Q46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3252,13 +3261,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F47">
         <v>7.37</v>
@@ -3288,16 +3297,16 @@
         <v>5496887</v>
       </c>
       <c r="Q47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3308,10 +3317,10 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48">
         <v>0.03875</v>
@@ -3326,7 +3335,7 @@
         <v>0.0665</v>
       </c>
       <c r="L48">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="M48">
         <v>0.05798</v>
@@ -3341,19 +3350,19 @@
         <v>5496887</v>
       </c>
       <c r="Q48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3364,10 +3373,10 @@
         <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F49">
         <v>0.03875</v>
@@ -3382,7 +3391,7 @@
         <v>0.0665</v>
       </c>
       <c r="L49">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="M49">
         <v>0.05798</v>
@@ -3397,19 +3406,19 @@
         <v>5496887</v>
       </c>
       <c r="Q49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3420,16 +3429,16 @@
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F50">
         <v>0.07000000000000001</v>
       </c>
       <c r="G50">
-        <v>0.0730820650266082</v>
+        <v>0.07279498888641101</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -3453,19 +3462,19 @@
         <v>5496887</v>
       </c>
       <c r="Q50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3476,16 +3485,16 @@
         <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F51">
         <v>0.07000000000000001</v>
       </c>
       <c r="G51">
-        <v>0.0730820650266082</v>
+        <v>0.07279498888641101</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -3509,19 +3518,19 @@
         <v>5496887</v>
       </c>
       <c r="Q51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3532,10 +3541,10 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F52">
         <v>0.008999999999999999</v>
@@ -3550,7 +3559,7 @@
         <v>0.0222</v>
       </c>
       <c r="L52">
-        <v>0.008500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M52">
         <v>0.013</v>
@@ -3565,19 +3574,19 @@
         <v>5496887</v>
       </c>
       <c r="Q52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3588,10 +3597,10 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F53">
         <v>0.008999999999999999</v>
@@ -3606,7 +3615,7 @@
         <v>0.0222</v>
       </c>
       <c r="L53">
-        <v>0.008500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M53">
         <v>0.013</v>
@@ -3621,19 +3630,19 @@
         <v>5496887</v>
       </c>
       <c r="Q53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3644,13 +3653,13 @@
         <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F54">
         <v>0.63</v>
@@ -3680,16 +3689,16 @@
         <v>5496887</v>
       </c>
       <c r="Q54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3700,13 +3709,13 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <v>1.525</v>
@@ -3721,7 +3730,7 @@
         <v>20.7</v>
       </c>
       <c r="L55">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="M55">
         <v>5.5</v>
@@ -3736,19 +3745,19 @@
         <v>5496887</v>
       </c>
       <c r="Q55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3759,13 +3768,13 @@
         <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F56">
         <v>0.007</v>
@@ -3795,19 +3804,19 @@
         <v>5496887</v>
       </c>
       <c r="Q56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3818,13 +3827,13 @@
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F57">
         <v>0.007</v>
@@ -3854,19 +3863,19 @@
         <v>5496887</v>
       </c>
       <c r="Q57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3877,19 +3886,19 @@
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F58">
         <v>21</v>
       </c>
       <c r="G58">
-        <v>39.4586844901564</v>
+        <v>39.4690683502295</v>
       </c>
       <c r="H58">
         <v>480</v>
@@ -3904,7 +3913,7 @@
         <v>1.78571428571429</v>
       </c>
       <c r="L58">
-        <v>39</v>
+        <v>36.5</v>
       </c>
       <c r="M58">
         <v>67.92</v>
@@ -3919,19 +3928,19 @@
         <v>5496887</v>
       </c>
       <c r="Q58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3942,19 +3951,19 @@
         <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59">
         <v>21</v>
       </c>
       <c r="G59">
-        <v>39.4586844901564</v>
+        <v>39.4690683502295</v>
       </c>
       <c r="H59">
         <v>480</v>
@@ -3969,7 +3978,7 @@
         <v>1.78571428571429</v>
       </c>
       <c r="L59">
-        <v>39</v>
+        <v>36.5</v>
       </c>
       <c r="M59">
         <v>67.92</v>
@@ -3984,19 +3993,19 @@
         <v>5496887</v>
       </c>
       <c r="Q59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4007,19 +4016,19 @@
         <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F60">
         <v>21</v>
       </c>
       <c r="G60">
-        <v>39.4586844901564</v>
+        <v>39.4690683502295</v>
       </c>
       <c r="H60">
         <v>480</v>
@@ -4034,7 +4043,7 @@
         <v>1.78571428571429</v>
       </c>
       <c r="L60">
-        <v>39</v>
+        <v>36.5</v>
       </c>
       <c r="M60">
         <v>67.92</v>
@@ -4049,19 +4058,19 @@
         <v>5496887</v>
       </c>
       <c r="Q60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4072,19 +4081,19 @@
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F61">
         <v>21</v>
       </c>
       <c r="G61">
-        <v>39.4586844901564</v>
+        <v>39.4690683502295</v>
       </c>
       <c r="H61">
         <v>480</v>
@@ -4099,7 +4108,7 @@
         <v>1.78571428571429</v>
       </c>
       <c r="L61">
-        <v>39</v>
+        <v>36.5</v>
       </c>
       <c r="M61">
         <v>67.92</v>
@@ -4114,19 +4123,19 @@
         <v>5496887</v>
       </c>
       <c r="Q61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4137,13 +4146,13 @@
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F62">
         <v>126.15</v>
@@ -4173,16 +4182,16 @@
         <v>5496887</v>
       </c>
       <c r="Q62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4193,19 +4202,19 @@
         <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F63">
-        <v>0.00228</v>
+        <v>0.0024</v>
       </c>
       <c r="G63">
-        <v>0.0034052414181901</v>
+        <v>0.0034398627340769</v>
       </c>
       <c r="H63">
         <v>0.0459107659273188</v>
@@ -4214,7 +4223,7 @@
         <v>0.00779</v>
       </c>
       <c r="L63">
-        <v>0.00301</v>
+        <v>0.00284</v>
       </c>
       <c r="M63">
         <v>0.00424</v>
@@ -4229,19 +4238,19 @@
         <v>5496887</v>
       </c>
       <c r="Q63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4252,19 +4261,19 @@
         <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F64">
-        <v>0.00228</v>
+        <v>0.0024</v>
       </c>
       <c r="G64">
-        <v>0.0034052414181901</v>
+        <v>0.0034398627340769</v>
       </c>
       <c r="H64">
         <v>0.0459107659273188</v>
@@ -4273,7 +4282,7 @@
         <v>0.00779</v>
       </c>
       <c r="L64">
-        <v>0.00301</v>
+        <v>0.00284</v>
       </c>
       <c r="M64">
         <v>0.00424</v>
@@ -4288,19 +4297,19 @@
         <v>5496887</v>
       </c>
       <c r="Q64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U64" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4311,19 +4320,19 @@
         <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F65">
         <v>0.0315</v>
       </c>
       <c r="G65">
-        <v>0.0353773383689247</v>
+        <v>0.0353621109245126</v>
       </c>
       <c r="H65">
         <v>0.138</v>
@@ -4332,7 +4341,7 @@
         <v>0.0621</v>
       </c>
       <c r="L65">
-        <v>0.018</v>
+        <v>0.0205</v>
       </c>
       <c r="M65">
         <v>0.052</v>
@@ -4347,19 +4356,19 @@
         <v>5496887</v>
       </c>
       <c r="Q65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4370,19 +4379,19 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F66">
         <v>0.0315</v>
       </c>
       <c r="G66">
-        <v>0.0353773383689247</v>
+        <v>0.0353621109245126</v>
       </c>
       <c r="H66">
         <v>0.138</v>
@@ -4391,7 +4400,7 @@
         <v>0.0621</v>
       </c>
       <c r="L66">
-        <v>0.018</v>
+        <v>0.0205</v>
       </c>
       <c r="M66">
         <v>0.052</v>
@@ -4406,19 +4415,19 @@
         <v>5496887</v>
       </c>
       <c r="Q66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4429,13 +4438,13 @@
         <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F67">
         <v>7.37</v>
@@ -4465,16 +4474,16 @@
         <v>5496887</v>
       </c>
       <c r="Q67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4485,10 +4494,10 @@
         <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F68">
         <v>0.03875</v>
@@ -4503,7 +4512,7 @@
         <v>0.063</v>
       </c>
       <c r="L68">
-        <v>0.024</v>
+        <v>0.0265</v>
       </c>
       <c r="M68">
         <v>0.05698</v>
@@ -4518,19 +4527,19 @@
         <v>5496887</v>
       </c>
       <c r="Q68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U68" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4541,10 +4550,10 @@
         <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F69">
         <v>0.03875</v>
@@ -4559,7 +4568,7 @@
         <v>0.063</v>
       </c>
       <c r="L69">
-        <v>0.024</v>
+        <v>0.0265</v>
       </c>
       <c r="M69">
         <v>0.05698</v>
@@ -4574,19 +4583,19 @@
         <v>5496887</v>
       </c>
       <c r="Q69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4597,16 +4606,16 @@
         <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70">
         <v>0.07000000000000001</v>
       </c>
       <c r="G70">
-        <v>0.07380500444682279</v>
+        <v>0.073710198041502</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -4630,19 +4639,19 @@
         <v>5496887</v>
       </c>
       <c r="Q70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U70" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4653,16 +4662,16 @@
         <v>35</v>
       </c>
       <c r="D71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F71">
         <v>0.07000000000000001</v>
       </c>
       <c r="G71">
-        <v>0.07380500444682279</v>
+        <v>0.073710198041502</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -4686,19 +4695,19 @@
         <v>5496887</v>
       </c>
       <c r="Q71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U71" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4709,10 +4718,10 @@
         <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F72">
         <v>0.008999999999999999</v>
@@ -4742,19 +4751,19 @@
         <v>5496887</v>
       </c>
       <c r="Q72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U72" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4765,10 +4774,10 @@
         <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F73">
         <v>0.008999999999999999</v>
@@ -4798,19 +4807,1255 @@
         <v>5496887</v>
       </c>
       <c r="Q73" t="s">
+        <v>51</v>
+      </c>
+      <c r="R73" t="s">
+        <v>52</v>
+      </c>
+      <c r="S73" t="s">
+        <v>53</v>
+      </c>
+      <c r="T73" t="s">
+        <v>54</v>
+      </c>
+      <c r="U73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" t="s">
         <v>49</v>
       </c>
-      <c r="R73" t="s">
-        <v>50</v>
-      </c>
-      <c r="S73" t="s">
-        <v>51</v>
-      </c>
-      <c r="T73" t="s">
-        <v>52</v>
-      </c>
-      <c r="U73" t="s">
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74">
+        <v>0.63</v>
+      </c>
+      <c r="G74">
+        <v>0.635</v>
+      </c>
+      <c r="H74">
+        <v>0.67</v>
+      </c>
+      <c r="I74">
+        <v>0.67</v>
+      </c>
+      <c r="L74">
+        <v>0.63</v>
+      </c>
+      <c r="M74">
+        <v>0.6602</v>
+      </c>
+      <c r="N74">
+        <v>0.67</v>
+      </c>
+      <c r="O74">
+        <v>1799585</v>
+      </c>
+      <c r="P74">
+        <v>5496887</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>51</v>
+      </c>
+      <c r="R74" t="s">
+        <v>52</v>
+      </c>
+      <c r="S74" t="s">
+        <v>53</v>
+      </c>
+      <c r="T74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75">
+        <v>1.95</v>
+      </c>
+      <c r="G75">
+        <v>5.54118181818182</v>
+      </c>
+      <c r="H75">
+        <v>75</v>
+      </c>
+      <c r="I75">
+        <v>34.25</v>
+      </c>
+      <c r="L75">
+        <v>1.75</v>
+      </c>
+      <c r="M75">
+        <v>5.075</v>
+      </c>
+      <c r="N75">
+        <v>19.7</v>
+      </c>
+      <c r="O75">
+        <v>1799585</v>
+      </c>
+      <c r="P75">
+        <v>5496887</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>51</v>
+      </c>
+      <c r="R75" t="s">
+        <v>52</v>
+      </c>
+      <c r="S75" t="s">
+        <v>53</v>
+      </c>
+      <c r="T75" t="s">
+        <v>54</v>
+      </c>
+      <c r="U75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76">
+        <v>5.25</v>
+      </c>
+      <c r="G76">
+        <v>5.75443012499953</v>
+      </c>
+      <c r="H76">
+        <v>10.35</v>
+      </c>
+      <c r="I76">
+        <v>9.92</v>
+      </c>
+      <c r="L76">
+        <v>5.05</v>
+      </c>
+      <c r="M76">
+        <v>8.304</v>
+      </c>
+      <c r="N76">
+        <v>8.997999999999999</v>
+      </c>
+      <c r="O76">
+        <v>1799585</v>
+      </c>
+      <c r="P76">
+        <v>5496887</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>51</v>
+      </c>
+      <c r="R76" t="s">
+        <v>52</v>
+      </c>
+      <c r="S76" t="s">
+        <v>53</v>
+      </c>
+      <c r="T76" t="s">
+        <v>54</v>
+      </c>
+      <c r="U76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77">
+        <v>0.007</v>
+      </c>
+      <c r="G77">
+        <v>0.0075535714285714</v>
+      </c>
+      <c r="H77">
+        <v>0.015</v>
+      </c>
+      <c r="I77">
+        <v>0.0127</v>
+      </c>
+      <c r="L77">
+        <v>0.007</v>
+      </c>
+      <c r="M77">
+        <v>0.009979999999999999</v>
+      </c>
+      <c r="N77">
+        <v>0.01102</v>
+      </c>
+      <c r="O77">
+        <v>1799585</v>
+      </c>
+      <c r="P77">
+        <v>5496887</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>51</v>
+      </c>
+      <c r="R77" t="s">
+        <v>52</v>
+      </c>
+      <c r="S77" t="s">
+        <v>53</v>
+      </c>
+      <c r="T77" t="s">
+        <v>54</v>
+      </c>
+      <c r="U77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>0.007</v>
+      </c>
+      <c r="G78">
+        <v>0.0075535714285714</v>
+      </c>
+      <c r="H78">
+        <v>0.015</v>
+      </c>
+      <c r="I78">
+        <v>0.0127</v>
+      </c>
+      <c r="L78">
+        <v>0.007</v>
+      </c>
+      <c r="M78">
+        <v>0.009979999999999999</v>
+      </c>
+      <c r="N78">
+        <v>0.01102</v>
+      </c>
+      <c r="O78">
+        <v>1799585</v>
+      </c>
+      <c r="P78">
+        <v>5496887</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>51</v>
+      </c>
+      <c r="R78" t="s">
+        <v>52</v>
+      </c>
+      <c r="S78" t="s">
+        <v>53</v>
+      </c>
+      <c r="T78" t="s">
+        <v>54</v>
+      </c>
+      <c r="U78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79">
+        <v>16.4</v>
+      </c>
+      <c r="G79">
+        <v>29.3373024140344</v>
+      </c>
+      <c r="H79">
+        <v>134.4</v>
+      </c>
+      <c r="I79">
+        <v>107</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>39.1</v>
+      </c>
+      <c r="M79">
+        <v>63.792</v>
+      </c>
+      <c r="N79">
+        <v>81.57599999999999</v>
+      </c>
+      <c r="O79">
+        <v>1799585</v>
+      </c>
+      <c r="P79">
+        <v>5496887</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>51</v>
+      </c>
+      <c r="R79" t="s">
+        <v>52</v>
+      </c>
+      <c r="S79" t="s">
+        <v>53</v>
+      </c>
+      <c r="T79" t="s">
+        <v>54</v>
+      </c>
+      <c r="U79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80">
+        <v>16.4</v>
+      </c>
+      <c r="G80">
+        <v>29.3373024140344</v>
+      </c>
+      <c r="H80">
+        <v>134.4</v>
+      </c>
+      <c r="I80">
+        <v>107</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>39.1</v>
+      </c>
+      <c r="M80">
+        <v>63.792</v>
+      </c>
+      <c r="N80">
+        <v>81.57599999999999</v>
+      </c>
+      <c r="O80">
+        <v>1799585</v>
+      </c>
+      <c r="P80">
+        <v>5496887</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>51</v>
+      </c>
+      <c r="R80" t="s">
+        <v>52</v>
+      </c>
+      <c r="S80" t="s">
+        <v>53</v>
+      </c>
+      <c r="T80" t="s">
+        <v>54</v>
+      </c>
+      <c r="U80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81">
+        <v>16.4</v>
+      </c>
+      <c r="G81">
+        <v>29.3373024140344</v>
+      </c>
+      <c r="H81">
+        <v>134.4</v>
+      </c>
+      <c r="I81">
+        <v>107</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>39.1</v>
+      </c>
+      <c r="M81">
+        <v>63.792</v>
+      </c>
+      <c r="N81">
+        <v>81.57599999999999</v>
+      </c>
+      <c r="O81">
+        <v>1799585</v>
+      </c>
+      <c r="P81">
+        <v>5496887</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>51</v>
+      </c>
+      <c r="R81" t="s">
+        <v>52</v>
+      </c>
+      <c r="S81" t="s">
+        <v>53</v>
+      </c>
+      <c r="T81" t="s">
+        <v>54</v>
+      </c>
+      <c r="U81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82">
+        <v>16.4</v>
+      </c>
+      <c r="G82">
+        <v>29.3373024140344</v>
+      </c>
+      <c r="H82">
+        <v>134.4</v>
+      </c>
+      <c r="I82">
+        <v>107</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>39.1</v>
+      </c>
+      <c r="M82">
+        <v>63.792</v>
+      </c>
+      <c r="N82">
+        <v>81.57599999999999</v>
+      </c>
+      <c r="O82">
+        <v>1799585</v>
+      </c>
+      <c r="P82">
+        <v>5496887</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>51</v>
+      </c>
+      <c r="R82" t="s">
+        <v>52</v>
+      </c>
+      <c r="S82" t="s">
+        <v>53</v>
+      </c>
+      <c r="T82" t="s">
+        <v>54</v>
+      </c>
+      <c r="U82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83">
+        <v>126.15</v>
+      </c>
+      <c r="G83">
+        <v>131.126</v>
+      </c>
+      <c r="H83">
+        <v>154</v>
+      </c>
+      <c r="I83">
+        <v>154</v>
+      </c>
+      <c r="L83">
+        <v>126.15</v>
+      </c>
+      <c r="M83">
+        <v>145.7855</v>
+      </c>
+      <c r="N83">
+        <v>154</v>
+      </c>
+      <c r="O83">
+        <v>1799585</v>
+      </c>
+      <c r="P83">
+        <v>5496887</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>51</v>
+      </c>
+      <c r="R83" t="s">
+        <v>52</v>
+      </c>
+      <c r="S83" t="s">
+        <v>53</v>
+      </c>
+      <c r="T83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84">
+        <v>0.00192</v>
+      </c>
+      <c r="G84">
+        <v>0.0036137685155957</v>
+      </c>
+      <c r="H84">
+        <v>0.0459107659273188</v>
+      </c>
+      <c r="I84">
+        <v>0.00855</v>
+      </c>
+      <c r="L84">
+        <v>0.00257</v>
+      </c>
+      <c r="M84">
+        <v>0.00439</v>
+      </c>
+      <c r="N84">
+        <v>0.00805</v>
+      </c>
+      <c r="O84">
+        <v>1799585</v>
+      </c>
+      <c r="P84">
+        <v>5496887</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>51</v>
+      </c>
+      <c r="R84" t="s">
+        <v>52</v>
+      </c>
+      <c r="S84" t="s">
+        <v>53</v>
+      </c>
+      <c r="T84" t="s">
+        <v>54</v>
+      </c>
+      <c r="U84" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85">
+        <v>0.00192</v>
+      </c>
+      <c r="G85">
+        <v>0.0036137685155957</v>
+      </c>
+      <c r="H85">
+        <v>0.0459107659273188</v>
+      </c>
+      <c r="I85">
+        <v>0.00855</v>
+      </c>
+      <c r="L85">
+        <v>0.00257</v>
+      </c>
+      <c r="M85">
+        <v>0.00439</v>
+      </c>
+      <c r="N85">
+        <v>0.00805</v>
+      </c>
+      <c r="O85">
+        <v>1799585</v>
+      </c>
+      <c r="P85">
+        <v>5496887</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>51</v>
+      </c>
+      <c r="R85" t="s">
+        <v>52</v>
+      </c>
+      <c r="S85" t="s">
+        <v>53</v>
+      </c>
+      <c r="T85" t="s">
+        <v>54</v>
+      </c>
+      <c r="U85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>0.028</v>
+      </c>
+      <c r="G86">
+        <v>0.0305585394959411</v>
+      </c>
+      <c r="H86">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I86">
+        <v>0.0582</v>
+      </c>
+      <c r="L86">
+        <v>0.018</v>
+      </c>
+      <c r="M86">
+        <v>0.04896</v>
+      </c>
+      <c r="N86">
+        <v>0.05302</v>
+      </c>
+      <c r="O86">
+        <v>1799585</v>
+      </c>
+      <c r="P86">
+        <v>5496887</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>51</v>
+      </c>
+      <c r="R86" t="s">
+        <v>52</v>
+      </c>
+      <c r="S86" t="s">
+        <v>53</v>
+      </c>
+      <c r="T86" t="s">
+        <v>54</v>
+      </c>
+      <c r="U86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87">
+        <v>0.028</v>
+      </c>
+      <c r="G87">
+        <v>0.0305585394959411</v>
+      </c>
+      <c r="H87">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I87">
+        <v>0.0582</v>
+      </c>
+      <c r="L87">
+        <v>0.018</v>
+      </c>
+      <c r="M87">
+        <v>0.04896</v>
+      </c>
+      <c r="N87">
+        <v>0.05302</v>
+      </c>
+      <c r="O87">
+        <v>1799585</v>
+      </c>
+      <c r="P87">
+        <v>5496887</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>51</v>
+      </c>
+      <c r="R87" t="s">
+        <v>52</v>
+      </c>
+      <c r="S87" t="s">
+        <v>53</v>
+      </c>
+      <c r="T87" t="s">
+        <v>54</v>
+      </c>
+      <c r="U87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88">
+        <v>7.37</v>
+      </c>
+      <c r="G88">
+        <v>7.4532</v>
+      </c>
+      <c r="H88">
+        <v>7.943</v>
+      </c>
+      <c r="I88">
+        <v>7.943</v>
+      </c>
+      <c r="L88">
+        <v>7.37</v>
+      </c>
+      <c r="M88">
+        <v>7.92095</v>
+      </c>
+      <c r="N88">
+        <v>7.943</v>
+      </c>
+      <c r="O88">
+        <v>1799585</v>
+      </c>
+      <c r="P88">
+        <v>5496887</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>51</v>
+      </c>
+      <c r="R88" t="s">
+        <v>52</v>
+      </c>
+      <c r="S88" t="s">
+        <v>53</v>
+      </c>
+      <c r="T88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89">
+        <v>0.034</v>
+      </c>
+      <c r="G89">
+        <v>0.0370714285714286</v>
+      </c>
+      <c r="H89">
+        <v>0.123</v>
+      </c>
+      <c r="I89">
+        <v>0.063</v>
+      </c>
+      <c r="L89">
+        <v>0.024</v>
+      </c>
+      <c r="M89">
+        <v>0.05296</v>
+      </c>
+      <c r="N89">
+        <v>0.06202</v>
+      </c>
+      <c r="O89">
+        <v>1799585</v>
+      </c>
+      <c r="P89">
+        <v>5496887</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>51</v>
+      </c>
+      <c r="R89" t="s">
+        <v>52</v>
+      </c>
+      <c r="S89" t="s">
+        <v>53</v>
+      </c>
+      <c r="T89" t="s">
+        <v>54</v>
+      </c>
+      <c r="U89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90">
+        <v>0.034</v>
+      </c>
+      <c r="G90">
+        <v>0.0370714285714286</v>
+      </c>
+      <c r="H90">
+        <v>0.123</v>
+      </c>
+      <c r="I90">
+        <v>0.063</v>
+      </c>
+      <c r="L90">
+        <v>0.024</v>
+      </c>
+      <c r="M90">
+        <v>0.05296</v>
+      </c>
+      <c r="N90">
+        <v>0.06202</v>
+      </c>
+      <c r="O90">
+        <v>1799585</v>
+      </c>
+      <c r="P90">
+        <v>5496887</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>51</v>
+      </c>
+      <c r="R90" t="s">
+        <v>52</v>
+      </c>
+      <c r="S90" t="s">
+        <v>53</v>
+      </c>
+      <c r="T90" t="s">
+        <v>54</v>
+      </c>
+      <c r="U90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" t="s">
+        <v>50</v>
+      </c>
+      <c r="F91">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.0719642857142857</v>
+      </c>
+      <c r="H91">
+        <v>0.25</v>
+      </c>
+      <c r="I91">
+        <v>0.141</v>
+      </c>
+      <c r="L91">
+        <v>0.06</v>
+      </c>
+      <c r="M91">
+        <v>0.09</v>
+      </c>
+      <c r="N91">
+        <v>0.12</v>
+      </c>
+      <c r="O91">
+        <v>1799585</v>
+      </c>
+      <c r="P91">
+        <v>5496887</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>51</v>
+      </c>
+      <c r="R91" t="s">
+        <v>52</v>
+      </c>
+      <c r="S91" t="s">
+        <v>53</v>
+      </c>
+      <c r="T91" t="s">
+        <v>54</v>
+      </c>
+      <c r="U91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92" t="s">
+        <v>50</v>
+      </c>
+      <c r="F92">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G92">
+        <v>0.0719642857142857</v>
+      </c>
+      <c r="H92">
+        <v>0.25</v>
+      </c>
+      <c r="I92">
+        <v>0.141</v>
+      </c>
+      <c r="L92">
+        <v>0.06</v>
+      </c>
+      <c r="M92">
+        <v>0.09</v>
+      </c>
+      <c r="N92">
+        <v>0.12</v>
+      </c>
+      <c r="O92">
+        <v>1799585</v>
+      </c>
+      <c r="P92">
+        <v>5496887</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>51</v>
+      </c>
+      <c r="R92" t="s">
+        <v>52</v>
+      </c>
+      <c r="S92" t="s">
+        <v>53</v>
+      </c>
+      <c r="T92" t="s">
+        <v>54</v>
+      </c>
+      <c r="U92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E93" t="s">
+        <v>50</v>
+      </c>
+      <c r="F93">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G93">
+        <v>0.0104107142857143</v>
+      </c>
+      <c r="H93">
+        <v>0.04</v>
+      </c>
+      <c r="I93">
+        <v>0.0171</v>
+      </c>
+      <c r="L93">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M93">
+        <v>0.013</v>
+      </c>
+      <c r="N93">
+        <v>0.01402</v>
+      </c>
+      <c r="O93">
+        <v>1799585</v>
+      </c>
+      <c r="P93">
+        <v>5496887</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>51</v>
+      </c>
+      <c r="R93" t="s">
+        <v>52</v>
+      </c>
+      <c r="S93" t="s">
+        <v>53</v>
+      </c>
+      <c r="T93" t="s">
+        <v>54</v>
+      </c>
+      <c r="U93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" t="s">
+        <v>50</v>
+      </c>
+      <c r="F94">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G94">
+        <v>0.0104107142857143</v>
+      </c>
+      <c r="H94">
+        <v>0.04</v>
+      </c>
+      <c r="I94">
+        <v>0.0171</v>
+      </c>
+      <c r="L94">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M94">
+        <v>0.013</v>
+      </c>
+      <c r="N94">
+        <v>0.01402</v>
+      </c>
+      <c r="O94">
+        <v>1799585</v>
+      </c>
+      <c r="P94">
+        <v>5496887</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>51</v>
+      </c>
+      <c r="R94" t="s">
+        <v>52</v>
+      </c>
+      <c r="S94" t="s">
+        <v>53</v>
+      </c>
+      <c r="T94" t="s">
+        <v>54</v>
+      </c>
+      <c r="U94" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
